--- a/biology/Zoologie/Daboia_mauritanica/Daboia_mauritanica.xlsx
+++ b/biology/Zoologie/Daboia_mauritanica/Daboia_mauritanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daboia mauritanica est une espèce de serpents de la famille des Viperidae[1]. Le nom commun en français est le plus souvent vipère de l'Atlas ou vipère des sables, probablement celle du Petit prince mais Saint-Exupéry ne se souciait pas de zoologie. Ce serpent est responsable de près de la moitié des envenimations qui ont lieu au Maroc[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daboia mauritanica est une espèce de serpents de la famille des Viperidae. Le nom commun en français est le plus souvent vipère de l'Atlas ou vipère des sables, probablement celle du Petit prince mais Saint-Exupéry ne se souciait pas de zoologie. Ce serpent est responsable de près de la moitié des envenimations qui ont lieu au Maroc.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Sahara occidental, au Maroc, dans le nord de l'Algérie et en Tunisie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Sahara occidental, au Maroc, dans le nord de l'Algérie et en Tunisie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un serpent venimeux qui atteint environ 180 cm.
 </t>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Macrovipera mauritanica et Macrovipera deserti, ont été placées dans le genre Daboia sous les noms de Daboia mauritanica et Daboia deserti par Lenk, Kalyabina, Wink et Joger en 2001[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Macrovipera mauritanica et Macrovipera deserti, ont été placées dans le genre Daboia sous les noms de Daboia mauritanica et Daboia deserti par Lenk, Kalyabina, Wink et Joger en 2001.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1848 in Guichenot, 1848 : Exploration Scientifique de l'Algérie: Pendant les Années 1840, 1841, 1842. Sciences Physiques. Histoire Naturelle des Reptiles et des Poissons, vol. 5, Paris.</t>
         </is>
